--- a/data_year/zb/价格指数/农业生产资料价格分类指数(上年=100).xlsx
+++ b/data_year/zb/价格指数/农业生产资料价格分类指数(上年=100).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,1030 +513,540 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100.76159</v>
+      </c>
+      <c r="C2" t="n">
+        <v>104.2</v>
+      </c>
       <c r="D2" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
+        <v>107.2461</v>
+      </c>
+      <c r="E2" t="n">
+        <v>104.28756</v>
+      </c>
       <c r="F2" t="n">
-        <v>99.09999999999999</v>
+        <v>102.86071</v>
       </c>
       <c r="G2" t="n">
-        <v>99.3</v>
+        <v>102.50472</v>
       </c>
       <c r="H2" t="n">
-        <v>123.9</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>110.26646</v>
+      </c>
+      <c r="I2" t="n">
+        <v>109</v>
+      </c>
       <c r="J2" t="n">
-        <v>95.3</v>
+        <v>100.44563</v>
       </c>
       <c r="K2" t="n">
-        <v>96.8</v>
+        <v>102.4</v>
       </c>
       <c r="L2" t="n">
-        <v>95.09999999999999</v>
+        <v>100.2</v>
       </c>
       <c r="M2" t="n">
-        <v>92.90000000000001</v>
+        <v>98.55552</v>
       </c>
       <c r="N2" t="n">
-        <v>98.2</v>
+        <v>100.66839</v>
       </c>
       <c r="O2" t="n">
-        <v>96.5</v>
+        <v>101.43937</v>
       </c>
       <c r="P2" t="n">
-        <v>93.40000000000001</v>
+        <v>108.27222</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>137.30439111</v>
+      </c>
+      <c r="C3" t="n">
+        <v>103.4</v>
+      </c>
       <c r="D3" t="n">
-        <v>97.40000000000001</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
+        <v>108.1199094</v>
+      </c>
+      <c r="E3" t="n">
+        <v>108.32372501</v>
+      </c>
       <c r="F3" t="n">
-        <v>99.09999999999999</v>
+        <v>111.28945197</v>
       </c>
       <c r="G3" t="n">
-        <v>100.3</v>
+        <v>105.29367124</v>
       </c>
       <c r="H3" t="n">
-        <v>100</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>110.80472511</v>
+      </c>
+      <c r="I3" t="n">
+        <v>110.4</v>
+      </c>
       <c r="J3" t="n">
-        <v>97.09999999999999</v>
+        <v>102.55746697</v>
       </c>
       <c r="K3" t="n">
-        <v>98</v>
+        <v>103.2</v>
       </c>
       <c r="L3" t="n">
-        <v>96.90000000000001</v>
+        <v>102.5</v>
       </c>
       <c r="M3" t="n">
-        <v>97.90000000000001</v>
+        <v>113.28089533</v>
       </c>
       <c r="N3" t="n">
-        <v>98.8</v>
+        <v>103.61375037</v>
       </c>
       <c r="O3" t="n">
-        <v>97.09999999999999</v>
+        <v>104.61877861</v>
       </c>
       <c r="P3" t="n">
-        <v>104.1</v>
+        <v>107.58303837</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>104.58435116</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100.9</v>
+      </c>
       <c r="D4" t="n">
-        <v>102.9</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
+        <v>105.92609213</v>
+      </c>
+      <c r="E4" t="n">
+        <v>108.27752834</v>
+      </c>
       <c r="F4" t="n">
-        <v>100.5</v>
+        <v>105.55744063</v>
       </c>
       <c r="G4" t="n">
-        <v>99.7</v>
+        <v>104.37870967</v>
       </c>
       <c r="H4" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>104.16833292</v>
+      </c>
+      <c r="I4" t="n">
+        <v>108.2</v>
+      </c>
       <c r="J4" t="n">
-        <v>98</v>
+        <v>102.42517594</v>
       </c>
       <c r="K4" t="n">
-        <v>98.7</v>
+        <v>103.7</v>
       </c>
       <c r="L4" t="n">
-        <v>97.90000000000001</v>
+        <v>102.2</v>
       </c>
       <c r="M4" t="n">
-        <v>102.4</v>
+        <v>106.64418638</v>
       </c>
       <c r="N4" t="n">
-        <v>98.3</v>
+        <v>102.07295623</v>
       </c>
       <c r="O4" t="n">
-        <v>96.90000000000001</v>
+        <v>102.07133624</v>
       </c>
       <c r="P4" t="n">
-        <v>101.5</v>
+        <v>105.66023966</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>102.8947</v>
+        <v>100.30595003</v>
       </c>
       <c r="C5" t="n">
-        <v>99.3</v>
+        <v>101.3</v>
       </c>
       <c r="D5" t="n">
-        <v>96.9898</v>
-      </c>
-      <c r="E5" t="inlineStr"/>
+        <v>103.87917311</v>
+      </c>
+      <c r="E5" t="n">
+        <v>106.48438949</v>
+      </c>
       <c r="F5" t="n">
-        <v>101.3515</v>
+        <v>101.44034275</v>
       </c>
       <c r="G5" t="n">
-        <v>99.30459999999999</v>
+        <v>103.02110806</v>
       </c>
       <c r="H5" t="n">
-        <v>107.7565</v>
+        <v>100.49153825</v>
       </c>
       <c r="I5" t="n">
-        <v>95.40000000000001</v>
+        <v>105</v>
       </c>
       <c r="J5" t="n">
-        <v>99.9297</v>
+        <v>101.63454927</v>
       </c>
       <c r="K5" t="n">
-        <v>100.2</v>
+        <v>101.5</v>
       </c>
       <c r="L5" t="n">
-        <v>99.90000000000001</v>
+        <v>101.7</v>
       </c>
       <c r="M5" t="n">
-        <v>101.5711</v>
+        <v>97.71636167</v>
       </c>
       <c r="N5" t="n">
-        <v>99.35169999999999</v>
+        <v>100.73413925</v>
       </c>
       <c r="O5" t="n">
-        <v>98.47190000000001</v>
+        <v>100.51190924</v>
       </c>
       <c r="P5" t="n">
-        <v>101.9571</v>
+        <v>104.51715026</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>127.5677</v>
+        <v>97.81975051000001</v>
       </c>
       <c r="C6" t="n">
-        <v>104.2</v>
+        <v>101.1</v>
       </c>
       <c r="D6" t="n">
-        <v>106.2887</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
+        <v>102.09550761</v>
+      </c>
+      <c r="E6" t="n">
+        <v>103.96604497</v>
+      </c>
       <c r="F6" t="n">
-        <v>110.6326</v>
+        <v>99.14654485</v>
       </c>
       <c r="G6" t="n">
-        <v>104.3199</v>
+        <v>103.12337494</v>
       </c>
       <c r="H6" t="n">
-        <v>108.4189</v>
+        <v>98.19980855</v>
       </c>
       <c r="I6" t="n">
-        <v>107.6</v>
+        <v>102.5</v>
       </c>
       <c r="J6" t="n">
-        <v>103.0018</v>
+        <v>101.23343346</v>
       </c>
       <c r="K6" t="n">
-        <v>100.8</v>
+        <v>100.7</v>
       </c>
       <c r="L6" t="n">
-        <v>103.3</v>
+        <v>101.3</v>
       </c>
       <c r="M6" t="n">
-        <v>112.7714</v>
+        <v>94.16174830999999</v>
       </c>
       <c r="N6" t="n">
-        <v>102.1</v>
+        <v>100.45716063</v>
       </c>
       <c r="O6" t="n">
-        <v>102.2409</v>
+        <v>100.6016789</v>
       </c>
       <c r="P6" t="n">
-        <v>116.5175</v>
+        <v>101.98750318</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>106.5439</v>
+        <v>108.262833</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5</v>
+        <v>99.3</v>
       </c>
       <c r="D7" t="n">
-        <v>109.4182</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
+        <v>100.81456303</v>
+      </c>
+      <c r="E7" t="n">
+        <v>102.2031209</v>
+      </c>
       <c r="F7" t="n">
-        <v>108.3243</v>
+        <v>100.37603206</v>
       </c>
       <c r="G7" t="n">
-        <v>105.071</v>
+        <v>101.49195801</v>
       </c>
       <c r="H7" t="n">
-        <v>111.0795</v>
+        <v>87.30890934999999</v>
       </c>
       <c r="I7" t="n">
-        <v>110.7</v>
+        <v>101.4</v>
       </c>
       <c r="J7" t="n">
-        <v>104.1222</v>
+        <v>100.49417577</v>
       </c>
       <c r="K7" t="n">
-        <v>101.7</v>
+        <v>100.1</v>
       </c>
       <c r="L7" t="n">
-        <v>104.5</v>
+        <v>100.5</v>
       </c>
       <c r="M7" t="n">
-        <v>112.8088</v>
+        <v>100.61513007</v>
       </c>
       <c r="N7" t="n">
-        <v>102.2841</v>
+        <v>100.13364489</v>
       </c>
       <c r="O7" t="n">
-        <v>102.3015</v>
+        <v>99.80261905</v>
       </c>
       <c r="P7" t="n">
-        <v>103.8812</v>
+        <v>98.05655333999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>88.0411</v>
-      </c>
-      <c r="C8" t="n">
-        <v>104.6</v>
-      </c>
+        <v>126.92692582</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>105.81328</v>
+        <v>99.9403217</v>
       </c>
       <c r="E8" t="n">
-        <v>107.76983</v>
+        <v>101.50219201</v>
       </c>
       <c r="F8" t="n">
-        <v>101.52918</v>
+        <v>100.13779599</v>
       </c>
       <c r="G8" t="n">
-        <v>106.2481</v>
+        <v>100.96979536</v>
       </c>
       <c r="H8" t="n">
-        <v>113.42274</v>
-      </c>
-      <c r="I8" t="n">
-        <v>106.5</v>
-      </c>
+        <v>96.55238682</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>101.58214</v>
+        <v>99.94642276</v>
       </c>
       <c r="K8" t="n">
-        <v>102.4</v>
+        <v>99.8</v>
       </c>
       <c r="L8" t="n">
-        <v>101.5</v>
+        <v>100</v>
       </c>
       <c r="M8" t="n">
-        <v>100.11728</v>
+        <v>96.90954373</v>
       </c>
       <c r="N8" t="n">
-        <v>101.81511</v>
+        <v>99.51928939</v>
       </c>
       <c r="O8" t="n">
-        <v>101.49035</v>
+        <v>99.99869504999999</v>
       </c>
       <c r="P8" t="n">
-        <v>101.14821</v>
+        <v>95.54136059</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>144.51957</v>
-      </c>
-      <c r="C9" t="n">
-        <v>103.8</v>
-      </c>
+        <v>94.09999999999999</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>103.36053</v>
+        <v>100.7</v>
       </c>
       <c r="E9" t="n">
-        <v>109.67663</v>
+        <v>101.5</v>
       </c>
       <c r="F9" t="n">
-        <v>107.68696</v>
+        <v>100.6</v>
       </c>
       <c r="G9" t="n">
-        <v>104.90021</v>
+        <v>102.3</v>
       </c>
       <c r="H9" t="n">
-        <v>105.28396</v>
-      </c>
-      <c r="I9" t="n">
-        <v>103.1</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>101.37922</v>
-      </c>
-      <c r="K9" t="n">
-        <v>101.9</v>
-      </c>
-      <c r="L9" t="n">
-        <v>101.3</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
-        <v>103.36408</v>
+        <v>102.1</v>
       </c>
       <c r="N9" t="n">
-        <v>102.73382</v>
+        <v>101</v>
       </c>
       <c r="O9" t="n">
-        <v>101.68219</v>
+        <v>101.5</v>
       </c>
       <c r="P9" t="n">
-        <v>108.15041</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>131.51759</v>
-      </c>
-      <c r="C10" t="n">
-        <v>107.6</v>
-      </c>
+        <v>89.45316482</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>108.06419</v>
+        <v>101.29454136</v>
       </c>
       <c r="E10" t="n">
-        <v>110.32778</v>
+        <v>102.82367765</v>
       </c>
       <c r="F10" t="n">
-        <v>120.2846</v>
+        <v>103.10102774</v>
       </c>
       <c r="G10" t="n">
-        <v>112.4726</v>
+        <v>103.80556185</v>
       </c>
       <c r="H10" t="n">
-        <v>113.11375</v>
-      </c>
-      <c r="I10" t="n">
-        <v>108.3</v>
-      </c>
+        <v>112.55863528</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>107.95612</v>
-      </c>
-      <c r="K10" t="n">
-        <v>105</v>
-      </c>
-      <c r="L10" t="n">
-        <v>108.4</v>
-      </c>
+        <v>104.78606503</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
-        <v>131.7277</v>
+        <v>107.3777401</v>
       </c>
       <c r="N10" t="n">
-        <v>107.89213</v>
+        <v>101.3612963</v>
       </c>
       <c r="O10" t="n">
-        <v>109.0106</v>
+        <v>101.81338335</v>
       </c>
       <c r="P10" t="n">
-        <v>115.82205</v>
+        <v>102.89577175</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>82.70352</v>
-      </c>
-      <c r="C11" t="n">
-        <v>95.90000000000001</v>
-      </c>
+        <v>145.8</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>102.4563</v>
+        <v>100.9</v>
       </c>
       <c r="E11" t="n">
-        <v>107.86016</v>
+        <v>102.3</v>
       </c>
       <c r="F11" t="n">
-        <v>97.48993</v>
+        <v>104.6</v>
       </c>
       <c r="G11" t="n">
-        <v>103.09374</v>
+        <v>102.6</v>
       </c>
       <c r="H11" t="n">
-        <v>94.37564</v>
-      </c>
-      <c r="I11" t="n">
-        <v>106.5</v>
-      </c>
+        <v>94.59999999999999</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>100.14992</v>
+        <v>102.9</v>
       </c>
       <c r="K11" t="n">
-        <v>101.5</v>
+        <v>100.9</v>
       </c>
       <c r="L11" t="n">
-        <v>100</v>
+        <v>103.2</v>
       </c>
       <c r="M11" t="n">
-        <v>93.70987</v>
+        <v>101.9</v>
       </c>
       <c r="N11" t="n">
-        <v>101.5461</v>
+        <v>100.3</v>
       </c>
       <c r="O11" t="n">
-        <v>100.86281</v>
+        <v>100.9</v>
       </c>
       <c r="P11" t="n">
-        <v>102.3742</v>
+        <v>101.3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>100.76159</v>
-      </c>
-      <c r="C12" t="n">
-        <v>104.2</v>
-      </c>
+        <v>156.6</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>107.2461</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>104.28756</v>
+        <v>101.8</v>
       </c>
       <c r="F12" t="n">
-        <v>102.86071</v>
+        <v>106.1</v>
       </c>
       <c r="G12" t="n">
-        <v>102.50472</v>
+        <v>100.9</v>
       </c>
       <c r="H12" t="n">
-        <v>110.26646</v>
-      </c>
-      <c r="I12" t="n">
-        <v>109</v>
-      </c>
+        <v>86.5</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>100.44563</v>
-      </c>
-      <c r="K12" t="n">
-        <v>102.4</v>
-      </c>
-      <c r="L12" t="n">
-        <v>100.2</v>
-      </c>
+        <v>100.8</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
-        <v>98.55552</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="N12" t="n">
-        <v>100.66839</v>
+        <v>100.1</v>
       </c>
       <c r="O12" t="n">
-        <v>101.43937</v>
+        <v>100.1</v>
       </c>
       <c r="P12" t="n">
-        <v>108.27222</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>137.30439111</v>
-      </c>
-      <c r="C13" t="n">
-        <v>103.4</v>
-      </c>
-      <c r="D13" t="n">
-        <v>108.1199094</v>
-      </c>
-      <c r="E13" t="n">
-        <v>108.32372501</v>
-      </c>
-      <c r="F13" t="n">
-        <v>111.28945197</v>
-      </c>
-      <c r="G13" t="n">
-        <v>105.29367124</v>
-      </c>
-      <c r="H13" t="n">
-        <v>110.80472511</v>
-      </c>
-      <c r="I13" t="n">
-        <v>110.4</v>
-      </c>
-      <c r="J13" t="n">
-        <v>102.55746697</v>
-      </c>
-      <c r="K13" t="n">
-        <v>103.2</v>
-      </c>
-      <c r="L13" t="n">
-        <v>102.5</v>
-      </c>
-      <c r="M13" t="n">
-        <v>113.28089533</v>
-      </c>
-      <c r="N13" t="n">
-        <v>103.61375037</v>
-      </c>
-      <c r="O13" t="n">
-        <v>104.61877861</v>
-      </c>
-      <c r="P13" t="n">
-        <v>107.58303837</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>104.58435116</v>
-      </c>
-      <c r="C14" t="n">
-        <v>100.9</v>
-      </c>
-      <c r="D14" t="n">
-        <v>105.92609213</v>
-      </c>
-      <c r="E14" t="n">
-        <v>108.27752834</v>
-      </c>
-      <c r="F14" t="n">
-        <v>105.55744063</v>
-      </c>
-      <c r="G14" t="n">
-        <v>104.37870967</v>
-      </c>
-      <c r="H14" t="n">
-        <v>104.16833292</v>
-      </c>
-      <c r="I14" t="n">
-        <v>108.2</v>
-      </c>
-      <c r="J14" t="n">
-        <v>102.42517594</v>
-      </c>
-      <c r="K14" t="n">
-        <v>103.7</v>
-      </c>
-      <c r="L14" t="n">
-        <v>102.2</v>
-      </c>
-      <c r="M14" t="n">
-        <v>106.64418638</v>
-      </c>
-      <c r="N14" t="n">
-        <v>102.07295623</v>
-      </c>
-      <c r="O14" t="n">
-        <v>102.07133624</v>
-      </c>
-      <c r="P14" t="n">
-        <v>105.66023966</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>100.30595003</v>
-      </c>
-      <c r="C15" t="n">
-        <v>101.3</v>
-      </c>
-      <c r="D15" t="n">
-        <v>103.87917311</v>
-      </c>
-      <c r="E15" t="n">
-        <v>106.48438949</v>
-      </c>
-      <c r="F15" t="n">
-        <v>101.44034275</v>
-      </c>
-      <c r="G15" t="n">
-        <v>103.02110806</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100.49153825</v>
-      </c>
-      <c r="I15" t="n">
-        <v>105</v>
-      </c>
-      <c r="J15" t="n">
-        <v>101.63454927</v>
-      </c>
-      <c r="K15" t="n">
-        <v>101.5</v>
-      </c>
-      <c r="L15" t="n">
-        <v>101.7</v>
-      </c>
-      <c r="M15" t="n">
-        <v>97.71636167</v>
-      </c>
-      <c r="N15" t="n">
-        <v>100.73413925</v>
-      </c>
-      <c r="O15" t="n">
-        <v>100.51190924</v>
-      </c>
-      <c r="P15" t="n">
-        <v>104.51715026</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>97.81975051000001</v>
-      </c>
-      <c r="C16" t="n">
-        <v>101.1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>102.09550761</v>
-      </c>
-      <c r="E16" t="n">
-        <v>103.96604497</v>
-      </c>
-      <c r="F16" t="n">
-        <v>99.14654485</v>
-      </c>
-      <c r="G16" t="n">
-        <v>103.12337494</v>
-      </c>
-      <c r="H16" t="n">
-        <v>98.19980855</v>
-      </c>
-      <c r="I16" t="n">
-        <v>102.5</v>
-      </c>
-      <c r="J16" t="n">
-        <v>101.23343346</v>
-      </c>
-      <c r="K16" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="L16" t="n">
-        <v>101.3</v>
-      </c>
-      <c r="M16" t="n">
-        <v>94.16174830999999</v>
-      </c>
-      <c r="N16" t="n">
-        <v>100.45716063</v>
-      </c>
-      <c r="O16" t="n">
-        <v>100.6016789</v>
-      </c>
-      <c r="P16" t="n">
-        <v>101.98750318</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>108.262833</v>
-      </c>
-      <c r="C17" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="D17" t="n">
-        <v>100.81456303</v>
-      </c>
-      <c r="E17" t="n">
-        <v>102.2031209</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100.37603206</v>
-      </c>
-      <c r="G17" t="n">
-        <v>101.49195801</v>
-      </c>
-      <c r="H17" t="n">
-        <v>87.30890934999999</v>
-      </c>
-      <c r="I17" t="n">
-        <v>101.4</v>
-      </c>
-      <c r="J17" t="n">
-        <v>100.49417577</v>
-      </c>
-      <c r="K17" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="L17" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="M17" t="n">
-        <v>100.61513007</v>
-      </c>
-      <c r="N17" t="n">
-        <v>100.13364489</v>
-      </c>
-      <c r="O17" t="n">
-        <v>99.80261905</v>
-      </c>
-      <c r="P17" t="n">
-        <v>98.05655333999999</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>126.92692582</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="n">
-        <v>99.9403217</v>
-      </c>
-      <c r="E18" t="n">
-        <v>101.50219201</v>
-      </c>
-      <c r="F18" t="n">
-        <v>100.13779599</v>
-      </c>
-      <c r="G18" t="n">
-        <v>100.96979536</v>
-      </c>
-      <c r="H18" t="n">
-        <v>96.55238682</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>99.94642276</v>
-      </c>
-      <c r="K18" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="L18" t="n">
-        <v>100</v>
-      </c>
-      <c r="M18" t="n">
-        <v>96.90954373</v>
-      </c>
-      <c r="N18" t="n">
-        <v>99.51928939</v>
-      </c>
-      <c r="O18" t="n">
-        <v>99.99869504999999</v>
-      </c>
-      <c r="P18" t="n">
-        <v>95.54136059</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>94.09999999999999</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="E19" t="n">
-        <v>101.5</v>
-      </c>
-      <c r="F19" t="n">
-        <v>100.6</v>
-      </c>
-      <c r="G19" t="n">
-        <v>102.3</v>
-      </c>
-      <c r="H19" t="n">
-        <v>110</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>101</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>102.1</v>
-      </c>
-      <c r="N19" t="n">
-        <v>101</v>
-      </c>
-      <c r="O19" t="n">
-        <v>101.5</v>
-      </c>
-      <c r="P19" t="n">
-        <v>99.09999999999999</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>89.45316482</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="n">
-        <v>101.29454136</v>
-      </c>
-      <c r="E20" t="n">
-        <v>102.82367765</v>
-      </c>
-      <c r="F20" t="n">
-        <v>103.10102774</v>
-      </c>
-      <c r="G20" t="n">
-        <v>103.80556185</v>
-      </c>
-      <c r="H20" t="n">
-        <v>112.55863528</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>104.78606503</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>107.3777401</v>
-      </c>
-      <c r="N20" t="n">
-        <v>101.3612963</v>
-      </c>
-      <c r="O20" t="n">
-        <v>101.81338335</v>
-      </c>
-      <c r="P20" t="n">
-        <v>102.89577175</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>145.8</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="n">
-        <v>100.9</v>
-      </c>
-      <c r="E21" t="n">
-        <v>102.3</v>
-      </c>
-      <c r="F21" t="n">
-        <v>104.6</v>
-      </c>
-      <c r="G21" t="n">
-        <v>102.6</v>
-      </c>
-      <c r="H21" t="n">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>102.9</v>
-      </c>
-      <c r="K21" t="n">
-        <v>100.9</v>
-      </c>
-      <c r="L21" t="n">
-        <v>103.2</v>
-      </c>
-      <c r="M21" t="n">
-        <v>101.9</v>
-      </c>
-      <c r="N21" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="O21" t="n">
-        <v>100.9</v>
-      </c>
-      <c r="P21" t="n">
-        <v>101.3</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>156.6</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="E22" t="n">
-        <v>101.8</v>
-      </c>
-      <c r="F22" t="n">
-        <v>106.1</v>
-      </c>
-      <c r="G22" t="n">
-        <v>100.9</v>
-      </c>
-      <c r="H22" t="n">
-        <v>86.5</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>100.8</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="N22" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="O22" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="P22" t="n">
         <v>104.2</v>
       </c>
     </row>
